--- a/Proyecto Balancin/Calibración.xlsx
+++ b/Proyecto Balancin/Calibración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Universidad\Trabajos_Mecatronica\8_Semestre\Técnicas de Control\Proyecto Balancin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Universidad\Trabajos_Mecatronica\8_Semestre\Técnicas de Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5052B2A-58A8-412B-9D65-F51F85D994F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24BC27C-DE5D-43A9-A257-C7C163433DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{62FF46C0-2DB9-4771-AD68-014BAB6650A9}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,19 +109,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,23 +212,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17388648293963255"/>
-          <c:y val="0.18303258967629046"/>
-          <c:w val="0.78644685039370077"/>
-          <c:h val="0.60044765237678621"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -264,6 +257,57 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11107874015748032"/>
+                  <c:y val="6.7822251385243511E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
@@ -284,8 +328,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.24492038495188101"/>
-                  <c:y val="-1.0037182852143483E-2"/>
+                  <c:x val="8.7351924759405078E-2"/>
+                  <c:y val="0.35799139690871973"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -320,10 +364,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$12</c:f>
+              <c:f>Hoja1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.14</c:v>
                 </c:pt>
@@ -356,16 +400,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$12</c:f>
+              <c:f>Hoja1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.9779419242914978E-2</c:v>
                 </c:pt>
@@ -398,6 +445,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.0581708716599191E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6588189800328663E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5BA5D2-68DF-4048-8B27-E66365EDE9BE}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1639,7 +1689,7 @@
     <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,12 +1704,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2.14</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B8" si="0">($G$3*$H$3-D2*E2-$D$12*$E$12)*9.7735/(1000*123.5)</f>
+        <f>($G$3*$H$3-D2*E2-$D$12*$E$12)*9.7735/(1000*123.5)</f>
         <v>2.9779419242914978E-2</v>
       </c>
       <c r="C2" s="1"/>
@@ -1679,12 +1729,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2.3199999999999998</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" si="0"/>
+        <f>($G$3*$H$3-D3*E3-$D$12*$E$12)*9.7735/(1000*123.5)</f>
         <v>3.2865787663967611E-2</v>
       </c>
       <c r="C3" s="1"/>
@@ -1704,12 +1754,12 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2.46</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="0"/>
+        <f>($G$3*$H$3-D4*E4-$D$12*$E$12)*9.7735/(1000*123.5)</f>
         <v>3.5952156085020247E-2</v>
       </c>
       <c r="C4" s="1"/>
@@ -1720,12 +1770,12 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2.5299999999999998</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
+        <f>($G$3*$H$3-D5*E5-$D$12*$E$12)*9.7735/(1000*123.5)</f>
         <v>3.7495340295546561E-2</v>
       </c>
       <c r="C5" s="1"/>
@@ -1736,12 +1786,12 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2.14</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
+        <f>($G$3*$H$3-D6*E6-$D$12*$E$12)*9.7735/(1000*123.5)</f>
         <v>2.514986661133603E-2</v>
       </c>
       <c r="C6" s="1"/>
@@ -1752,12 +1802,12 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2.13</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
+        <f>($G$3*$H$3-D7*E7-$D$12*$E$12)*9.7735/(1000*123.5)</f>
         <v>2.8236235032388663E-2</v>
       </c>
       <c r="C7" s="1"/>
@@ -1768,12 +1818,12 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1.79</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
+        <f>($G$3*$H$3-D8*E8-$D$12*$E$12)*9.7735/(1000*123.5)</f>
         <v>1.7433945558704454E-2</v>
       </c>
       <c r="C8" s="1"/>
@@ -1783,9 +1833,8 @@
       <c r="E8" s="1">
         <v>19.5</v>
       </c>
-      <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2.92</v>
       </c>
@@ -1801,7 +1850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3.38</v>
       </c>
@@ -1817,9 +1866,9 @@
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1.58</v>
       </c>
@@ -1835,7 +1884,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2.75</v>
       </c>
@@ -1849,11 +1898,12 @@
       <c r="D12" s="1">
         <v>3.58</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>25.41</v>
       </c>
+      <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.36</v>
       </c>
@@ -1866,8 +1916,9 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
+      <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.52</v>
       </c>
@@ -1875,7 +1926,7 @@
         <f>($G$3*$H$3-D14*E14-$D$12*$E$12)*9.7735/(1000*123.5)</f>
         <v>-1.8498505251012144E-2</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1">
@@ -1884,9 +1935,8 @@
       <c r="E14" s="1">
         <v>39.5</v>
       </c>
-      <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1.03</v>
       </c>
@@ -1894,7 +1944,7 @@
         <f>($G$3*$H$3-D15*E15-$D$12*$E$12)*9.7735/(1000*123.5)</f>
         <v>-3.3990412834008104E-3</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="1">
         <v>28.5</v>
       </c>
@@ -1902,7 +1952,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0.63</v>
       </c>
@@ -1910,13 +1960,14 @@
         <f>($G$3*$H$3-D16*E16-$D$12*$E$12)*9.7735/(1000*123.5)</f>
         <v>-1.8213609704453449E-2</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="1">
         <v>38.1</v>
       </c>
       <c r="E16" s="1">
         <v>19.5</v>
       </c>
+      <c r="H16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
